--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>473437.3285292187</v>
+        <v>471180.3066201351</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.58283623</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>79.97861261893982</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.87491045352363</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>223.82438355203</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>285.0120783583001</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>206.0542719083141</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>70.03418953492984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.790440613649634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>141.8882059692612</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481178</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>114.3875550887364</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>190.2713935802964</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734026365</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004753</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1585,10 +1585,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>118.8070076965254</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>251.4178899434598</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492418</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>37.59657533957264</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292629</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868246976</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734101331</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>97.97724076774105</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004751</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,16 +2059,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968105</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.28280651916089</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250812</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>37.59657533957274</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250808</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>59.9032091929889</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>25.53923626892152</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>108.8785818413203</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>181.4487096095772</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>127.3161382965496</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>202.4425172951289</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935318</v>
+        <v>178.7757248935319</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298069</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>70.55897304948998</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.5897927156061717</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430364</v>
+        <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877637</v>
+        <v>218.4926939877638</v>
       </c>
       <c r="U37" t="n">
         <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354225</v>
+        <v>251.0813880354226</v>
       </c>
       <c r="W37" t="n">
         <v>285.4667430481855</v>
@@ -3490,7 +3490,7 @@
         <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636894</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433977</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124534</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128505</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1568.353113282533</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="F2" t="n">
         <v>799.1015098861748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>1568.353113282533</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1568.353113282533</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4419,13 +4419,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4522,16 +4522,16 @@
         <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>211.4036268380754</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>211.4036268380754</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>836.4180700913882</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>836.4180700913882</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4562,22 +4562,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X5" t="n">
-        <v>1750.153230744814</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y5" t="n">
-        <v>1750.153230744814</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1112.426648284105</v>
+        <v>959.5129866402888</v>
       </c>
       <c r="C8" t="n">
-        <v>743.4641313436935</v>
+        <v>959.5129866402888</v>
       </c>
       <c r="D8" t="n">
-        <v>743.4641313436935</v>
+        <v>959.5129866402888</v>
       </c>
       <c r="E8" t="n">
-        <v>357.6758787454492</v>
+        <v>959.5129866402888</v>
       </c>
       <c r="F8" t="n">
-        <v>350.7303779962457</v>
+        <v>548.5270818506812</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.6036777892721</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2526.577416610597</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2307.942749582659</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2054.180964220751</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X8" t="n">
-        <v>1112.426648284105</v>
+        <v>1349.652318616101</v>
       </c>
       <c r="Y8" t="n">
-        <v>1112.426648284105</v>
+        <v>959.5129866402888</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750356</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,43 +5024,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074192</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>750.1800661608999</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1614.698881814253</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2593.24918464408</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N11" t="n">
-        <v>3573.001456870725</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750061</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107238</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,7 +5069,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232022</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.00003200879</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426844</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902946</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549545</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536.5812623108402</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C13" t="n">
-        <v>536.5812623108402</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
-        <v>536.5812623108402</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5197,52 +5197,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442056</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927011</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598113</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862227</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862227</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431753</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557396</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1235.636448076058</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>946.2192780390969</v>
+        <v>655.3156895889872</v>
       </c>
       <c r="X13" t="n">
-        <v>718.2297271410799</v>
+        <v>427.3261386909699</v>
       </c>
       <c r="Y13" t="n">
-        <v>718.2297271410799</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5279,25 +5279,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3783.446538019154</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,22 +5385,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.613856788637</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
         <v>95.56103444839442</v>
@@ -5437,49 +5437,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1918.367127377862</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1696.600511947388</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1407.497645073032</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1152.813156867145</v>
+        <v>909.273154178341</v>
       </c>
       <c r="W16" t="n">
-        <v>863.3959868301845</v>
+        <v>619.8559841413804</v>
       </c>
       <c r="X16" t="n">
-        <v>635.4064359321671</v>
+        <v>391.8664332433631</v>
       </c>
       <c r="Y16" t="n">
-        <v>414.613856788637</v>
+        <v>171.073854099833</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277722</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176174</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770971</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442894</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2730.494725501674</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3610.459375831128</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4323.814463278072</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973119</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161849</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549336</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494781</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763631</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089812</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468487</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232022</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454337</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.00003200879</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426844</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902946</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549545</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.95810714206</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.52022063554</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313395</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447811</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216068</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487867</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282334</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.80810951738</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>681.2836032803232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>512.3474203524163</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>362.2307809400805</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5671,52 +5671,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953297</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442056</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927012</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952185</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862227</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689054</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.06050925858</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384224</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783405</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783405</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>681.2836032803232</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>681.2836032803232</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5756,22 +5756,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3962.897130029547</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4357.671496386725</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5832,37 +5832,37 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570256</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X22" t="n">
-        <v>673.3827746590083</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.5901955154782</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3008.107474639231</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3511.079945518568</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4224.435032965514</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4682.913235474502</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>452.5901955154783</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>283.6540125875713</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>133.5373731752356</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>133.5373731752356</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>133.5373731752356</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>133.5373731752356</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>133.5373731752356</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570258</v>
+        <v>619.8559841413795</v>
       </c>
       <c r="X25" t="n">
-        <v>673.3827746590084</v>
+        <v>391.8664332433622</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.5901955154783</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6224,22 +6224,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6294,7 +6294,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.2000540015823</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6382,10 +6382,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1895.835173990573</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1895.835173990573</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1895.835173990573</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1606.732307116217</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1352.04781891033</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W28" t="n">
-        <v>1062.630648873369</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="X28" t="n">
-        <v>834.6410979753522</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="Y28" t="n">
-        <v>613.848518831822</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,25 +6464,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>818.2062848686776</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1682.725100522032</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
         <v>1715.000032008795</v>
@@ -6558,34 +6558,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>692.2950589102011</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>523.3588759822942</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>373.2422365699584</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6625,10 +6625,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6640,31 +6640,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1322.725653781988</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>1322.725653781988</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1094.736102883971</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>873.9435237404408</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001584</v>
@@ -6695,7 +6695,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
@@ -6704,46 +6704,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3362.809616117417</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3865.782086996754</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6783,7 +6783,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>686.6690720494834</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C34" t="n">
-        <v>686.6690720494834</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D34" t="n">
-        <v>686.6690720494835</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E34" t="n">
-        <v>538.7559784670904</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F34" t="n">
-        <v>391.8660309691801</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G34" t="n">
-        <v>224.1631943438991</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.724257814701</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1385.724257814701</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1096.30708777774</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>868.3175368797231</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>868.3175368797231</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,46 +6935,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7020,7 +7020,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>315.8824392759668</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>315.8824392759668</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>166.832724397374</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
         <v>95.56103444839442</v>
@@ -7093,13 +7093,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308515</v>
+        <v>141.7293596308514</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152493</v>
+        <v>346.7622353152491</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992668</v>
+        <v>664.3677264992666</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834337</v>
@@ -7111,34 +7111,34 @@
         <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100839</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.113257771091</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349444</v>
+        <v>1773.49429813166</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.390357452713</v>
+        <v>1552.794607234929</v>
       </c>
       <c r="U37" t="n">
-        <v>1265.3544151121</v>
+        <v>1264.758664894315</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.736851439956</v>
+        <v>1011.141101222171</v>
       </c>
       <c r="W37" t="n">
-        <v>723.3866059367381</v>
+        <v>722.790855718953</v>
       </c>
       <c r="X37" t="n">
-        <v>496.4639795724636</v>
+        <v>495.8682293546785</v>
       </c>
       <c r="Y37" t="n">
-        <v>496.4639795724636</v>
+        <v>276.1425747448913</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7172,22 +7172,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7242,7 +7242,7 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,22 +7251,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902952</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215065</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416728</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774104</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430906</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160439</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.437078681975</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,31 +7351,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195775</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849074</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.05694589913</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036729</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,64 +7464,64 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7555,13 +7555,13 @@
         <v>463.8981507430892</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819756</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604456</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7646,25 +7646,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686432</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4338.82776704361</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7728,10 +7728,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,16 +7825,16 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S46" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U46" t="n">
         <v>1725.799256195774</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747314</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8690,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>133.2530576400358</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>192.9047586887102</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.496531173600829e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,13 +8942,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>17.45080131651065</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,13 +9176,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>82.70159106556886</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.830180948076304e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9404,25 +9404,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>114.2189875964762</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>36.4862832206214</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>344.7025836476837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>304.73518059997</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>19.79750571619297</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>314.5564971416997</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>37.1365111780442</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>201.9664098701125</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704403</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143186</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983822</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>133.3306356273026</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>35.10510839313122</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270131</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.1724499918693</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>48.45672187882812</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>105.0742887270175</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>116.5491736627764</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>58.75584507026534</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>105.074288727014</v>
       </c>
     </row>
     <row r="26">
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>29.02894347705843</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>193.0454170831733</v>
       </c>
     </row>
     <row r="29">
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>37.55538080524889</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>17.43887661777117</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>16.14213605696585</v>
       </c>
     </row>
     <row r="35">
@@ -25315,10 +25315,10 @@
         <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>74.81873430867373</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
         <v>144.3647927345258</v>
@@ -25327,10 +25327,10 @@
         <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259153</v>
+        <v>143.6987596259154</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143262</v>
+        <v>95.29616512143265</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164186</v>
+        <v>87.28610466603573</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-9.257039707010313e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1049768.224295667</v>
+        <v>1049768.224295666</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
-        <v>357373.6081982852</v>
+        <v>357373.6081982849</v>
       </c>
       <c r="F2" t="n">
         <v>357373.6081982848</v>
       </c>
       <c r="G2" t="n">
-        <v>357373.6081982851</v>
+        <v>357373.6081982852</v>
       </c>
       <c r="H2" t="n">
-        <v>357373.6081982852</v>
+        <v>357373.6081982849</v>
       </c>
       <c r="I2" t="n">
-        <v>357373.6081982851</v>
+        <v>357373.6081982849</v>
       </c>
       <c r="J2" t="n">
         <v>357373.6081982851</v>
       </c>
       <c r="K2" t="n">
-        <v>357373.6081982848</v>
+        <v>357373.6081982847</v>
       </c>
       <c r="L2" t="n">
-        <v>357373.6081982851</v>
+        <v>357373.6081982852</v>
       </c>
       <c r="M2" t="n">
-        <v>357645.5734859472</v>
+        <v>357645.5734859473</v>
       </c>
       <c r="N2" t="n">
         <v>369468.7964389278</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389279</v>
+        <v>369468.796438928</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934051</v>
+        <v>727377.4139934072</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857255e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.011341013266551e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-09</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696692</v>
+        <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
         <v>36735.10506414968</v>
@@ -26421,40 +26421,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571281</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231919009</v>
+        <v>18148.49231918997</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
+        <v>18148.49231919009</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918991</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811452</v>
+        <v>18496.05294811456</v>
       </c>
       <c r="N4" t="n">
+        <v>33605.65329740896</v>
+      </c>
+      <c r="O4" t="n">
         <v>33605.65329740897</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371361</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26497,7 +26497,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
         <v>96472.31657955461</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-486706.8476961546</v>
+        <v>-486706.8476961545</v>
       </c>
       <c r="C6" t="n">
-        <v>103261.0315183899</v>
+        <v>103261.03151839</v>
       </c>
       <c r="D6" t="n">
-        <v>103261.0315183899</v>
+        <v>103261.0315183901</v>
       </c>
       <c r="E6" t="n">
-        <v>-484535.8163680236</v>
+        <v>-484603.0118582516</v>
       </c>
       <c r="F6" t="n">
-        <v>242841.5976253794</v>
+        <v>242774.4021351553</v>
       </c>
       <c r="G6" t="n">
-        <v>242841.5976253815</v>
+        <v>242774.4021351574</v>
       </c>
       <c r="H6" t="n">
-        <v>242841.5976253816</v>
+        <v>242774.4021351537</v>
       </c>
       <c r="I6" t="n">
-        <v>242841.5976253815</v>
+        <v>242774.4021351555</v>
       </c>
       <c r="J6" t="n">
-        <v>66418.37843278858</v>
+        <v>66351.18294256262</v>
       </c>
       <c r="K6" t="n">
-        <v>242841.5976253813</v>
+        <v>242774.4021351553</v>
       </c>
       <c r="L6" t="n">
-        <v>242841.5976253815</v>
+        <v>242774.4021351558</v>
       </c>
       <c r="M6" t="n">
-        <v>112189.8848886088</v>
+        <v>112124.200316648</v>
       </c>
       <c r="N6" t="n">
-        <v>198795.3670632671</v>
+        <v>198795.367063267</v>
       </c>
       <c r="O6" t="n">
-        <v>235530.4721274167</v>
+        <v>235530.4721274165</v>
       </c>
       <c r="P6" t="n">
-        <v>235530.4721274168</v>
+        <v>235530.4721274169</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593296</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="N2" t="n">
-        <v>45.9188813301871</v>
+        <v>45.91888133018711</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762095</v>
+        <v>712.033036376212</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-8.59500334336127e-13</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-12</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.225657850375</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.225657850375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>326.8974331227716</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>354.8561902249454</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.94594161440352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>28.31325977179802</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>121.8639673834113</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>163.6768287701549</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>216.2476847070479</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.7942127384452</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>271.8959640515338</v>
-      </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>60.02815772023514</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>96.0104806616813</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.188471626141109e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405466</v>
+        <v>1.056255288405436</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554462</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.3907153663379</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473548</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141103</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839647</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078605</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644437</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813574</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175836</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383793</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681588</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844658</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974796</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953981</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003798</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623179</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574979</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095008</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099044</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.99498197464</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.099994678168</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563563</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806931</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451116</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934527</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502561</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798527</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752241</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353149</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138785</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837912</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970239</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002918</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905538</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238307</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898478</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462212</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430534</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311876</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742007</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297387</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702019</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098814</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316426</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883109</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085995</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802164</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895877</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712197</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553029</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112278</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780292</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33740,13 +33740,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770685</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535805</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873142</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687118</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>470.4443441954351</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427811</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230577</v>
+        <v>731.825874518937</v>
       </c>
       <c r="N11" t="n">
-        <v>989.648759824894</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882176</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193705</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222421</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597665</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306594</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443191</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701975</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675395</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789332</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
@@ -35662,13 +35662,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>416.2127875358825</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407856</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865553992</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427811</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302252</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129099</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.853182150963</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908531</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>333.4958958692874</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152067</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597665</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609559</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340044</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600458</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525794</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859615</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306597</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443191</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701975</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934832</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675395</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226392</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451099</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789332</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>365.0132924001957</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>96.09948176284612</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>897.0044190605952</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>812.7881814881891</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36832,13 +36832,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>558.7186215464197</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
@@ -36847,13 +36847,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
@@ -37072,25 +37072,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>866.8583325546111</v>
       </c>
       <c r="O32" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>715.1385088750701</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147169</v>
+        <v>46.63467190147166</v>
       </c>
       <c r="K37" t="n">
         <v>207.103914832725</v>
@@ -37482,7 +37482,7 @@
         <v>236.0133264335159</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629912</v>
+        <v>79.45049382629909</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37555,10 +37555,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>435.8984973974161</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>600.7283960894844</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707635</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
